--- a/course_requests.xlsx
+++ b/course_requests.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -669,6 +669,87 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Foundation</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Introduction to Programming</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1 week</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Advanced</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azure DevOps</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3 weeks</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Team C</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Foundation</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Introduction to Programming</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1 week</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
